--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9712C3-7413-4E62-B1FE-F204A03FCA9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E9526-87FB-4B5C-9C50-66FF2726E9BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -666,21 +666,12 @@
     <t>newRowInitialElementKeyToValueMap</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
     <t>openRowInitialElementKeyToValueMap</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
     <t>font-size</t>
   </si>
   <si>
@@ -1248,12 +1239,6 @@
     <t>data('LASTVISIT') != null</t>
   </si>
   <si>
-    <t>{ID: data('ID'), CICADATA: data('CONT')}</t>
-  </si>
-  <si>
-    <t>{ID: data('ID'), PREGDIA: data('CONT'), ESTADOVIS: data('ESTADOVIS'), VISITID: data('_id')}</t>
-  </si>
-  <si>
     <t>data('GR') == '1'  || data('GRCORE') == '1'</t>
   </si>
   <si>
@@ -1284,10 +1269,25 @@
     <t>Vaccines</t>
   </si>
   <si>
-    <t>{ID: data('ID'), VISITDATE: data('CONT'), VISITID: data('_id')}</t>
-  </si>
-  <si>
     <t>MIF_VISIT</t>
+  </si>
+  <si>
+    <t>REGID = ?</t>
+  </si>
+  <si>
+    <t>[data('REGID')]</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), PREGDIA: data('CONT'), ESTADOVIS: data('ESTADOVIS'), VISITID: data('_id')}</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), CICADATA: data('CONT'), VISITID: data('_id')}</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), VISITDATE: data('CONT'), VISITID: data('_id')}</t>
+  </si>
+  <si>
+    <t>REGID</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -1810,13 +1810,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1827,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,10 +1851,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1881,15 +1881,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
         <v>144</v>
@@ -1945,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1954,10 +1954,10 @@
         <v>136</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -2015,7 +2015,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
         <v>145</v>
@@ -2029,12 +2029,12 @@
         <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F9" t="s">
         <v>147</v>
@@ -2068,7 +2068,7 @@
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2132,13 +2132,13 @@
         <v>27</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
         <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,13 +2157,13 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2171,7 +2171,7 @@
         <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,30 +2179,30 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2271,12 +2271,12 @@
         <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F33" t="s">
         <v>159</v>
@@ -2308,7 +2308,7 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2333,10 +2333,10 @@
         <v>164</v>
       </c>
       <c r="J39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K39" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F44" t="s">
         <v>189</v>
@@ -2384,13 +2384,13 @@
         <v>61</v>
       </c>
       <c r="F45" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" t="s">
         <v>245</v>
       </c>
-      <c r="G45" t="s">
-        <v>248</v>
-      </c>
       <c r="H45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>194</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F52" t="s">
         <v>196</v>
@@ -2475,13 +2475,13 @@
         <v>61</v>
       </c>
       <c r="F53" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" t="s">
+        <v>243</v>
+      </c>
+      <c r="H53" t="s">
         <v>244</v>
-      </c>
-      <c r="G53" t="s">
-        <v>246</v>
-      </c>
-      <c r="H53" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -2509,7 +2509,7 @@
         <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -2618,7 +2618,7 @@
         <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,13 +2661,13 @@
         <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G74" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H74" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,21 +2675,21 @@
         <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H76" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,10 +2697,10 @@
         <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -2724,7 +2724,7 @@
         <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2734,13 +2734,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>199</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G87" t="s">
         <v>200</v>
@@ -2795,7 +2795,7 @@
         <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2805,13 +2805,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H91" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -2860,13 +2860,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -2874,12 +2874,12 @@
         <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -2912,30 +2912,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2968,7 +2968,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -3621,32 +3621,32 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B45" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B46" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
@@ -3994,82 +3994,82 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B70" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B71" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B72" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B73" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B74" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B75" t="str">
         <f>"3"</f>
@@ -4106,7 +4106,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -4135,10 +4135,10 @@
         <v>210</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4149,74 +4149,74 @@
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>413</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>414</v>
       </c>
       <c r="G2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>414</v>
       </c>
       <c r="G3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
       </c>
       <c r="C4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" t="s">
         <v>414</v>
-      </c>
-      <c r="D4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" t="s">
-        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>417</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4228,9 +4228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4267,7 @@
         <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
         <v>133</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
         <v>133</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>133</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
         <v>133</v>
@@ -4410,7 +4410,7 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
         <v>133</v>
@@ -4465,7 +4465,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
@@ -4704,10 +4704,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -4836,10 +4836,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
         <v>133</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s">
         <v>133</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s">
         <v>133</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
         <v>133</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
         <v>133</v>
@@ -4924,10 +4924,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
         <v>133</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B65" t="s">
         <v>133</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
         <v>133</v>
@@ -4968,10 +4968,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s">
         <v>133</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B69" t="s">
         <v>133</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s">
         <v>133</v>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
         <v>133</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
         <v>133</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B74" t="s">
         <v>133</v>
@@ -5056,10 +5056,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B76" t="s">
         <v>133</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
         <v>133</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B78" t="s">
         <v>133</v>
@@ -5100,10 +5100,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s">
         <v>133</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B81" t="s">
         <v>133</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s">
         <v>133</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B83" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B84" t="s">
         <v>133</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
         <v>133</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s">
         <v>133</v>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B89" t="s">
         <v>133</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B90" t="s">
         <v>133</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B92" t="s">
         <v>133</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s">
         <v>133</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s">
         <v>133</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B95" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
         <v>133</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B97" t="s">
         <v>133</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B98" t="s">
         <v>133</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B99" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B100" t="s">
         <v>133</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B101" t="s">
         <v>133</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B102" t="s">
         <v>133</v>
@@ -5364,10 +5364,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B104" t="s">
         <v>133</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B105" t="s">
         <v>133</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B106" t="s">
         <v>133</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B108" t="s">
         <v>133</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B110" t="s">
         <v>133</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B111" t="s">
         <v>133</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B112" t="s">
         <v>133</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
         <v>133</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B114" t="s">
         <v>133</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
         <v>133</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B116" t="s">
         <v>133</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B117" t="s">
         <v>133</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B118" t="s">
         <v>133</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B120" t="s">
         <v>133</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B121" t="s">
         <v>133</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
         <v>133</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B123" t="s">
         <v>133</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s">
         <v>133</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -5672,10 +5672,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -5683,10 +5683,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B134" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059E9526-87FB-4B5C-9C50-66FF2726E9BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFB947-BA24-46B3-AF03-02CB1DB3B164}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="319">
   <si>
     <t>setting_name</t>
   </si>
@@ -789,18 +789,9 @@
     <t>vactype</t>
   </si>
   <si>
-    <t>VAC1TIPO</t>
-  </si>
-  <si>
-    <t>VAC1DATA</t>
-  </si>
-  <si>
     <t>vacinf</t>
   </si>
   <si>
-    <t>VAC1INF</t>
-  </si>
-  <si>
     <t>data('CART') == '1'</t>
   </si>
   <si>
@@ -813,9 +804,6 @@
     <t>Pregnancy card</t>
   </si>
   <si>
-    <t>addvac1</t>
-  </si>
-  <si>
     <t>vaccheck</t>
   </si>
   <si>
@@ -825,294 +813,6 @@
     <t>Change information</t>
   </si>
   <si>
-    <t>VAC1CHECK</t>
-  </si>
-  <si>
-    <t>addvac2</t>
-  </si>
-  <si>
-    <t>addvac3</t>
-  </si>
-  <si>
-    <t>VAC2TIPO</t>
-  </si>
-  <si>
-    <t>VAC2DATA</t>
-  </si>
-  <si>
-    <t>VAC2INF</t>
-  </si>
-  <si>
-    <t>VAC2CHECK</t>
-  </si>
-  <si>
-    <t>addvac4</t>
-  </si>
-  <si>
-    <t>addvac5</t>
-  </si>
-  <si>
-    <t>addvac6</t>
-  </si>
-  <si>
-    <t>addvac7</t>
-  </si>
-  <si>
-    <t>addvac8</t>
-  </si>
-  <si>
-    <t>addvac9</t>
-  </si>
-  <si>
-    <t>addvac10</t>
-  </si>
-  <si>
-    <t>addvac11</t>
-  </si>
-  <si>
-    <t>VAC3TIPO</t>
-  </si>
-  <si>
-    <t>VAC3DATA</t>
-  </si>
-  <si>
-    <t>VAC3INF</t>
-  </si>
-  <si>
-    <t>VAC3CHECK</t>
-  </si>
-  <si>
-    <t>VAC5TIPO</t>
-  </si>
-  <si>
-    <t>VAC5DATA</t>
-  </si>
-  <si>
-    <t>VAC5INF</t>
-  </si>
-  <si>
-    <t>VAC5CHECK</t>
-  </si>
-  <si>
-    <t>VAC7TIPO</t>
-  </si>
-  <si>
-    <t>VAC7DATA</t>
-  </si>
-  <si>
-    <t>VAC7INF</t>
-  </si>
-  <si>
-    <t>VAC7CHECK</t>
-  </si>
-  <si>
-    <t>VAC9TIPO</t>
-  </si>
-  <si>
-    <t>VAC9DATA</t>
-  </si>
-  <si>
-    <t>VAC9INF</t>
-  </si>
-  <si>
-    <t>VAC9CHECK</t>
-  </si>
-  <si>
-    <t>VAC11TIPO</t>
-  </si>
-  <si>
-    <t>VAC11DATA</t>
-  </si>
-  <si>
-    <t>VAC11INF</t>
-  </si>
-  <si>
-    <t>VAC11CHECK</t>
-  </si>
-  <si>
-    <t>VAC13TIPO</t>
-  </si>
-  <si>
-    <t>VAC13DATA</t>
-  </si>
-  <si>
-    <t>VAC13INF</t>
-  </si>
-  <si>
-    <t>VAC13CHECK</t>
-  </si>
-  <si>
-    <t>VAC15TIPO</t>
-  </si>
-  <si>
-    <t>VAC15DATA</t>
-  </si>
-  <si>
-    <t>VAC15INF</t>
-  </si>
-  <si>
-    <t>VAC15CHECK</t>
-  </si>
-  <si>
-    <t>VAC17TIPO</t>
-  </si>
-  <si>
-    <t>VAC17DATA</t>
-  </si>
-  <si>
-    <t>VAC17INF</t>
-  </si>
-  <si>
-    <t>VAC17CHECK</t>
-  </si>
-  <si>
-    <t>VAC19TIPO</t>
-  </si>
-  <si>
-    <t>VAC19DATA</t>
-  </si>
-  <si>
-    <t>VAC19INF</t>
-  </si>
-  <si>
-    <t>VAC19CHECK</t>
-  </si>
-  <si>
-    <t>addvac13</t>
-  </si>
-  <si>
-    <t>addvac15</t>
-  </si>
-  <si>
-    <t>addvac17</t>
-  </si>
-  <si>
-    <t>addvac19</t>
-  </si>
-  <si>
-    <t>VAC4TIPO</t>
-  </si>
-  <si>
-    <t>VAC4DATA</t>
-  </si>
-  <si>
-    <t>VAC4INF</t>
-  </si>
-  <si>
-    <t>VAC4CHECK</t>
-  </si>
-  <si>
-    <t>VAC6TIPO</t>
-  </si>
-  <si>
-    <t>VAC6DATA</t>
-  </si>
-  <si>
-    <t>VAC6INF</t>
-  </si>
-  <si>
-    <t>VAC6CHECK</t>
-  </si>
-  <si>
-    <t>VAC8TIPO</t>
-  </si>
-  <si>
-    <t>VAC8DATA</t>
-  </si>
-  <si>
-    <t>VAC8INF</t>
-  </si>
-  <si>
-    <t>VAC8CHECK</t>
-  </si>
-  <si>
-    <t>VAC10TIPO</t>
-  </si>
-  <si>
-    <t>VAC10DATA</t>
-  </si>
-  <si>
-    <t>VAC10INF</t>
-  </si>
-  <si>
-    <t>VAC10CHECK</t>
-  </si>
-  <si>
-    <t>VAC12TIPO</t>
-  </si>
-  <si>
-    <t>VAC12DATA</t>
-  </si>
-  <si>
-    <t>VAC12INF</t>
-  </si>
-  <si>
-    <t>VAC12CHECK</t>
-  </si>
-  <si>
-    <t>VAC14TIPO</t>
-  </si>
-  <si>
-    <t>VAC14DATA</t>
-  </si>
-  <si>
-    <t>VAC14INF</t>
-  </si>
-  <si>
-    <t>VAC14CHECK</t>
-  </si>
-  <si>
-    <t>VAC16TIPO</t>
-  </si>
-  <si>
-    <t>VAC16DATA</t>
-  </si>
-  <si>
-    <t>VAC16INF</t>
-  </si>
-  <si>
-    <t>VAC16CHECK</t>
-  </si>
-  <si>
-    <t>VAC18TIPO</t>
-  </si>
-  <si>
-    <t>VAC18DATA</t>
-  </si>
-  <si>
-    <t>VAC18INF</t>
-  </si>
-  <si>
-    <t>VAC18CHECK</t>
-  </si>
-  <si>
-    <t>VAC20TIPO</t>
-  </si>
-  <si>
-    <t>VAC20DATA</t>
-  </si>
-  <si>
-    <t>VAC20INF</t>
-  </si>
-  <si>
-    <t>VAC20CHECK</t>
-  </si>
-  <si>
-    <t>addvac12</t>
-  </si>
-  <si>
-    <t>addvac14</t>
-  </si>
-  <si>
-    <t>addvac16</t>
-  </si>
-  <si>
-    <t>addvac18</t>
-  </si>
-  <si>
-    <t>addvac20</t>
-  </si>
-  <si>
     <t>dontknow</t>
   </si>
   <si>
@@ -1278,16 +978,16 @@
     <t>[data('REGID')]</t>
   </si>
   <si>
-    <t>{REGID: data('REGID'), PREGDIA: data('CONT'), ESTADOVIS: data('ESTADOVIS'), VISITID: data('_id')}</t>
-  </si>
-  <si>
-    <t>{REGID: data('REGID'), CICADATA: data('CONT'), VISITID: data('_id')}</t>
-  </si>
-  <si>
-    <t>{REGID: data('REGID'), VISITDATE: data('CONT'), VISITID: data('_id')}</t>
-  </si>
-  <si>
     <t>REGID</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), CICADATA: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), PREGDIA: data('CONT'), ESTADOVIS: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
   </si>
 </sst>
 </file>
@@ -1810,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1827,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,10 +1551,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1570,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1945,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1954,7 +1654,7 @@
         <v>136</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>219</v>
@@ -1968,7 +1668,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -2034,7 +1734,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
         <v>147</v>
@@ -2107,7 +1807,7 @@
         <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,7 +1816,7 @@
         <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2138,7 +1838,7 @@
         <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2163,7 +1863,7 @@
         <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2188,12 +1888,12 @@
         <v>229</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>234</v>
@@ -2202,7 +1902,7 @@
         <v>236</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2271,12 +1971,12 @@
         <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F33" t="s">
         <v>159</v>
@@ -2308,7 +2008,7 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2336,7 +2036,7 @@
         <v>217</v>
       </c>
       <c r="K39" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2364,7 +2064,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F44" t="s">
         <v>189</v>
@@ -2442,7 +2142,7 @@
         <v>194</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2455,7 +2155,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F52" t="s">
         <v>196</v>
@@ -2509,7 +2209,7 @@
         <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -2618,7 +2318,7 @@
         <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,10 +2364,10 @@
         <v>247</v>
       </c>
       <c r="G74" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="H74" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,10 +2386,10 @@
         <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="H76" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,10 +2397,10 @@
         <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F77" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -2740,7 +2440,7 @@
         <v>223</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2795,7 +2495,7 @@
         <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2808,10 +2508,10 @@
         <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="H91" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,7 +2519,7 @@
         <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2850,7 +2550,7 @@
         <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,10 +2563,10 @@
         <v>215</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -2874,12 +2574,12 @@
         <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -2912,30 +2612,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2968,7 +2668,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -3631,7 +3331,7 @@
         <v>230</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3646,7 +3346,7 @@
         <v>231</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,7 +3679,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
@@ -4001,75 +3701,75 @@
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B71" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B72" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B73" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B74" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B75" t="str">
         <f>"3"</f>
@@ -4097,7 +3797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,19 +3849,19 @@
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>212</v>
@@ -4169,25 +3869,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
-        <v>415</v>
+        <v>317</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>212</v>
@@ -4195,25 +3895,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F4" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="G4" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>212</v>
@@ -4226,11 +3926,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +3967,7 @@
         <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4289,7 +3989,7 @@
         <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4366,7 +4066,7 @@
         <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -4410,7 +4110,7 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -4465,7 +4165,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4548,34 +4248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B31" t="s">
-        <v>365</v>
+        <v>220</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -4583,10 +4261,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
+        <v>303</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -4594,10 +4272,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -4605,1095 +4283,17 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" t="s">
-        <v>365</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>279</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" t="s">
-        <v>365</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>281</v>
-      </c>
-      <c r="B40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>322</v>
-      </c>
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>319</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>320</v>
-      </c>
-      <c r="B43" t="s">
-        <v>365</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>286</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>284</v>
-      </c>
-      <c r="B47" t="s">
-        <v>365</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>285</v>
-      </c>
-      <c r="B48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>326</v>
-      </c>
-      <c r="B49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>323</v>
-      </c>
-      <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>324</v>
-      </c>
-      <c r="B51" t="s">
-        <v>365</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>325</v>
-      </c>
-      <c r="B52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>290</v>
-      </c>
-      <c r="B53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>287</v>
-      </c>
-      <c r="B54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>288</v>
-      </c>
-      <c r="B55" t="s">
-        <v>365</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>289</v>
-      </c>
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>330</v>
-      </c>
-      <c r="B57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>327</v>
-      </c>
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>328</v>
-      </c>
-      <c r="B59" t="s">
-        <v>365</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>329</v>
-      </c>
-      <c r="B60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>294</v>
-      </c>
-      <c r="B61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>292</v>
-      </c>
-      <c r="B63" t="s">
-        <v>365</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>334</v>
-      </c>
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>332</v>
-      </c>
-      <c r="B67" t="s">
-        <v>365</v>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>333</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>298</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>295</v>
-      </c>
-      <c r="B70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>296</v>
-      </c>
-      <c r="B71" t="s">
-        <v>365</v>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>297</v>
-      </c>
-      <c r="B72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>338</v>
-      </c>
-      <c r="B73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>335</v>
-      </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>336</v>
-      </c>
-      <c r="B75" t="s">
-        <v>365</v>
-      </c>
-      <c r="C75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>337</v>
-      </c>
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>302</v>
-      </c>
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>300</v>
-      </c>
-      <c r="B79" t="s">
-        <v>365</v>
-      </c>
-      <c r="C79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>301</v>
-      </c>
-      <c r="B80" t="s">
-        <v>133</v>
-      </c>
-      <c r="C80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>342</v>
-      </c>
-      <c r="B81" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>340</v>
-      </c>
-      <c r="B83" t="s">
-        <v>365</v>
-      </c>
-      <c r="C83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>341</v>
-      </c>
-      <c r="B84" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>306</v>
-      </c>
-      <c r="B85" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>303</v>
-      </c>
-      <c r="B86" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>304</v>
-      </c>
-      <c r="B87" t="s">
-        <v>365</v>
-      </c>
-      <c r="C87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>305</v>
-      </c>
-      <c r="B88" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>346</v>
-      </c>
-      <c r="B89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>343</v>
-      </c>
-      <c r="B90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>344</v>
-      </c>
-      <c r="B91" t="s">
-        <v>365</v>
-      </c>
-      <c r="C91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>345</v>
-      </c>
-      <c r="B92" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>310</v>
-      </c>
-      <c r="B93" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>307</v>
-      </c>
-      <c r="B94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B95" t="s">
-        <v>365</v>
-      </c>
-      <c r="C95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>309</v>
-      </c>
-      <c r="B96" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>350</v>
-      </c>
-      <c r="B97" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>348</v>
-      </c>
-      <c r="B99" t="s">
-        <v>365</v>
-      </c>
-      <c r="C99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>349</v>
-      </c>
-      <c r="B100" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>314</v>
-      </c>
-      <c r="B101" t="s">
-        <v>133</v>
-      </c>
-      <c r="C101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>311</v>
-      </c>
-      <c r="B102" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>312</v>
-      </c>
-      <c r="B103" t="s">
-        <v>365</v>
-      </c>
-      <c r="C103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>313</v>
-      </c>
-      <c r="B104" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>354</v>
-      </c>
-      <c r="B105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>351</v>
-      </c>
-      <c r="B106" t="s">
-        <v>133</v>
-      </c>
-      <c r="C106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>352</v>
-      </c>
-      <c r="B107" t="s">
-        <v>365</v>
-      </c>
-      <c r="C107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>353</v>
-      </c>
-      <c r="B108" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>260</v>
-      </c>
-      <c r="B110" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>265</v>
-      </c>
-      <c r="B111" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>266</v>
-      </c>
-      <c r="B112" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" t="s">
-        <v>133</v>
-      </c>
-      <c r="C113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>272</v>
-      </c>
-      <c r="B114" t="s">
-        <v>133</v>
-      </c>
-      <c r="C114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>273</v>
-      </c>
-      <c r="B115" t="s">
-        <v>133</v>
-      </c>
-      <c r="C115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>274</v>
-      </c>
-      <c r="B116" t="s">
-        <v>133</v>
-      </c>
-      <c r="C116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>275</v>
-      </c>
-      <c r="B117" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>276</v>
-      </c>
-      <c r="B118" t="s">
-        <v>133</v>
-      </c>
-      <c r="C118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>277</v>
-      </c>
-      <c r="B119" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>278</v>
-      </c>
-      <c r="B120" t="s">
-        <v>133</v>
-      </c>
-      <c r="C120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>355</v>
-      </c>
-      <c r="B121" t="s">
-        <v>133</v>
-      </c>
-      <c r="C121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>315</v>
-      </c>
-      <c r="B122" t="s">
-        <v>133</v>
-      </c>
-      <c r="C122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>356</v>
-      </c>
-      <c r="B123" t="s">
-        <v>133</v>
-      </c>
-      <c r="C123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>316</v>
-      </c>
-      <c r="B124" t="s">
-        <v>133</v>
-      </c>
-      <c r="C124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>357</v>
-      </c>
-      <c r="B125" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>317</v>
-      </c>
-      <c r="B126" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>358</v>
-      </c>
-      <c r="B127" t="s">
-        <v>133</v>
-      </c>
-      <c r="C127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>318</v>
-      </c>
-      <c r="B128" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>359</v>
-      </c>
-      <c r="B129" t="s">
-        <v>133</v>
-      </c>
-      <c r="C129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>220</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>403</v>
-      </c>
-      <c r="B132" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>418</v>
-      </c>
-      <c r="B133" t="s">
-        <v>222</v>
-      </c>
-      <c r="C133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>218</v>
-      </c>
-      <c r="B134" t="s">
-        <v>365</v>
-      </c>
-      <c r="C134" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DFB947-BA24-46B3-AF03-02CB1DB3B164}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648E730-88F0-406D-A8F4-D772A18FF4B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -846,9 +846,6 @@
     <t>data('GR') != '1'</t>
   </si>
   <si>
-    <t>data('CONSENTSIG') != '1' &amp;&amp; data('CONSENTSIG') != '5' &amp;&amp; data('ESTADOVIS') == '1'</t>
-  </si>
-  <si>
     <t xml:space="preserve">end screen </t>
   </si>
   <si>
@@ -906,9 +903,6 @@
     <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3'</t>
   </si>
   <si>
-    <t>data('TENDAYN') == '1' || data('TENDAYN') == '3'</t>
-  </si>
-  <si>
     <t>Qual classe finalizao?</t>
   </si>
   <si>
@@ -988,6 +982,12 @@
   </si>
   <si>
     <t>{REGID: data('REGID'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>data('TENDAYN') != '2' || data('TENDA') !=3</t>
+  </si>
+  <si>
+    <t>data('CONSENTSIG') != '1' &amp;&amp; data('CONSENTSIG') != '4' &amp;&amp; data('ESTADOVIS') == '1'</t>
   </si>
 </sst>
 </file>
@@ -1510,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,10 +1551,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1605,9 +1605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1654,7 +1654,7 @@
         <v>136</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>219</v>
@@ -1807,7 +1807,7 @@
         <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>229</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>236</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>217</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
         <v>194</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2364,10 +2364,10 @@
         <v>247</v>
       </c>
       <c r="G74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2386,10 +2386,10 @@
         <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>223</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2508,10 +2508,10 @@
         <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H91" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
         <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -2563,10 +2563,10 @@
         <v>215</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -2574,12 +2574,12 @@
         <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -3331,7 +3331,7 @@
         <v>230</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
         <v>231</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3704,7 +3704,7 @@
         <v>254</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
         <v>256</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3749,7 +3749,7 @@
         <v>258</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>259</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3849,19 +3849,19 @@
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" t="s">
         <v>314</v>
-      </c>
-      <c r="G2" t="s">
-        <v>316</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>212</v>
@@ -3869,25 +3869,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>212</v>
@@ -3895,25 +3895,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>212</v>
@@ -3928,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>222</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648E730-88F0-406D-A8F4-D772A18FF4B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C4312-8B4C-45F4-B487-D9C31DA77039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="319">
   <si>
     <t>setting_name</t>
   </si>
@@ -1603,11 +1603,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1625,7 @@
     <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -1659,14 +1659,17 @@
       <c r="K1" s="27" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>265</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>133</v>
       </c>
@@ -1697,17 +1700,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>133</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>134</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>265</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>133</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>134</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>131</v>
       </c>
@@ -1785,23 +1788,23 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>134</v>
@@ -1974,7 +1977,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>269</v>
       </c>
@@ -1985,17 +1988,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>134</v>
       </c>
@@ -2003,20 +2006,23 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>133</v>
       </c>
@@ -2039,17 +2045,17 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>134</v>
       </c>
@@ -2057,12 +2063,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>265</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>133</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>133</v>
       </c>
@@ -2110,12 +2116,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>134</v>
       </c>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C4312-8B4C-45F4-B487-D9C31DA77039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724744AE-C18B-4E13-9D6A-487AA8ABED06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="321">
   <si>
     <t>setting_name</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>data('CONSENTSIG') != '1' &amp;&amp; data('CONSENTSIG') != '4' &amp;&amp; data('ESTADOVIS') == '1'</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1612,8 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -1737,7 +1743,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="F9" t="s">
         <v>147</v>
@@ -1896,7 +1902,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>234</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="F44" t="s">
         <v>189</v>
@@ -2161,7 +2167,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="F52" t="s">
         <v>196</v>
@@ -2602,11 +2608,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D16542-802D-44C2-9BBB-C38197DEBA0F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,6 +2648,20 @@
       </c>
       <c r="D2" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,7 +3993,7 @@
         <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3995,7 +4015,7 @@
         <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4072,7 +4092,7 @@
         <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -4116,7 +4136,7 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -4171,7 +4191,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4292,7 +4312,7 @@
         <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724744AE-C18B-4E13-9D6A-487AA8ABED06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A383A4-713C-4972-B633-8D778868CD1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="320">
   <si>
     <t>setting_name</t>
   </si>
@@ -486,12 +486,6 @@
     <t>EXITPRECIS</t>
   </si>
   <si>
-    <t>Precision of exit date</t>
-  </si>
-  <si>
-    <t>Certo da data de saída</t>
-  </si>
-  <si>
     <t>Onde?</t>
   </si>
   <si>
@@ -762,18 +756,6 @@
     <t>ABPARTPRECIS</t>
   </si>
   <si>
-    <t>Precision of death date</t>
-  </si>
-  <si>
-    <t>Certo da data de falecimento</t>
-  </si>
-  <si>
-    <t>Precision of delivery date</t>
-  </si>
-  <si>
-    <t>Certo da data de parto</t>
-  </si>
-  <si>
     <t>CESCO</t>
   </si>
   <si>
@@ -840,9 +822,6 @@
     <t>data('GR') == '1'</t>
   </si>
   <si>
-    <t>assign</t>
-  </si>
-  <si>
     <t>data('GR') != '1'</t>
   </si>
   <si>
@@ -994,6 +973,24 @@
   </si>
   <si>
     <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') =='3'</t>
+  </si>
+  <si>
+    <t>Fischa de Obito de MIF</t>
+  </si>
+  <si>
+    <t>MIFdead</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), DEATHDATE:data('EXITPRECIS'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>MIF_FAL</t>
+  </si>
+  <si>
+    <t>faleceu</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,6 +1130,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1158,7 +1161,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1209,6 +1212,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1516,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1533,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,10 +1561,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,7 +1580,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1587,15 +1591,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
         <v>144</v>
@@ -1609,11 +1613,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1660,13 +1664,13 @@
         <v>136</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1677,7 +1681,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -1724,7 +1728,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
         <v>145</v>
@@ -1738,12 +1742,12 @@
         <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
         <v>147</v>
@@ -1756,42 +1760,30 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" t="s">
         <v>151</v>
       </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" t="s">
-        <v>153</v>
+      <c r="B12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1800,361 +1792,345 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" t="s">
         <v>134</v>
       </c>
-      <c r="C16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>134</v>
       </c>
       <c r="C22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>133</v>
       </c>
-      <c r="E23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>133</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E36" t="s">
         <v>27</v>
       </c>
-      <c r="F30" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F36" t="s">
         <v>157</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H36" t="s">
         <v>159</v>
       </c>
-      <c r="G31" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>134</v>
       </c>
       <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+      <c r="G48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>133</v>
       </c>
-      <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>164</v>
       </c>
-      <c r="J39" t="s">
-        <v>217</v>
-      </c>
-      <c r="K39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="G49" t="s">
+        <v>165</v>
+      </c>
+      <c r="H49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>319</v>
-      </c>
-      <c r="F44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" t="s">
-        <v>242</v>
-      </c>
-      <c r="G45" t="s">
-        <v>245</v>
-      </c>
-      <c r="H45" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" t="s">
-        <v>166</v>
-      </c>
-      <c r="G46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" t="s">
-        <v>193</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2162,21 +2138,12 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>319</v>
-      </c>
-      <c r="F52" t="s">
-        <v>196</v>
-      </c>
-      <c r="G52" t="s">
-        <v>197</v>
-      </c>
-      <c r="H52" t="s">
-        <v>198</v>
+      <c r="B52" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -2184,26 +2151,38 @@
         <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G53" t="s">
-        <v>243</v>
-      </c>
-      <c r="H53" t="s">
-        <v>244</v>
+        <v>191</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>13</v>
+      <c r="D55" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" t="s">
+        <v>195</v>
+      </c>
+      <c r="H55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -2213,390 +2192,400 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" t="s">
-        <v>171</v>
-      </c>
-      <c r="H60" t="s">
-        <v>170</v>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G62" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H62" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>133</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>27</v>
       </c>
-      <c r="F67" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" t="s">
-        <v>177</v>
-      </c>
-      <c r="H67" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" t="s">
-        <v>178</v>
-      </c>
-      <c r="G68" t="s">
-        <v>179</v>
-      </c>
-      <c r="H68" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>133</v>
       </c>
       <c r="E70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s">
         <v>79</v>
       </c>
-      <c r="F70" t="s">
-        <v>181</v>
-      </c>
-      <c r="G70" t="s">
-        <v>182</v>
-      </c>
-      <c r="H70" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="F72" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" t="s">
+        <v>180</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
         <v>133</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>27</v>
       </c>
-      <c r="F74" t="s">
-        <v>247</v>
-      </c>
-      <c r="G74" t="s">
-        <v>288</v>
-      </c>
-      <c r="H74" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="F76" t="s">
+        <v>241</v>
+      </c>
+      <c r="G76" t="s">
+        <v>281</v>
+      </c>
+      <c r="H76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>134</v>
       </c>
-      <c r="C75" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" t="s">
-        <v>249</v>
-      </c>
-      <c r="G76" t="s">
-        <v>291</v>
-      </c>
-      <c r="H76" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>188</v>
-      </c>
-      <c r="E77" t="s">
-        <v>260</v>
-      </c>
-      <c r="F77" t="s">
-        <v>261</v>
-      </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="C77" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" t="s">
+        <v>243</v>
+      </c>
+      <c r="G78" t="s">
+        <v>284</v>
+      </c>
+      <c r="H78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" t="s">
+        <v>255</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>135</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" t="s">
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" t="s">
         <v>134</v>
       </c>
-      <c r="C80" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="C82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>215</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>202</v>
-      </c>
-      <c r="E83" t="s">
-        <v>203</v>
-      </c>
-    </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="D84" t="s">
+        <v>213</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>133</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" t="s">
         <v>199</v>
-      </c>
-      <c r="F87" t="s">
-        <v>250</v>
-      </c>
-      <c r="G87" t="s">
-        <v>200</v>
-      </c>
-      <c r="H87" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>215</v>
-      </c>
-      <c r="G91" t="s">
-        <v>309</v>
-      </c>
-      <c r="H91" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>202</v>
-      </c>
-      <c r="E92" t="s">
-        <v>306</v>
-      </c>
-    </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="D93" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s">
+        <v>302</v>
+      </c>
+      <c r="H93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
       <c r="B96" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+      <c r="A97" s="23"/>
       <c r="B97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="28"/>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" t="s">
         <v>134</v>
       </c>
-      <c r="C97" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>215</v>
-      </c>
-      <c r="G99" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="H99" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>271</v>
+      <c r="D101" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="26"/>
+      <c r="B104" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2612,7 +2601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,44 +2613,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2663,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2694,7 +2683,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -2702,7 +2691,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -2717,7 +2706,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
@@ -3249,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
         <v>67</v>
@@ -3347,32 +3336,32 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B45" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,7 +3694,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
@@ -3720,82 +3709,82 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B70" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B71" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B72" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B73" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B74" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B75" t="str">
         <f>"3"</f>
@@ -3819,11 +3808,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,109 +3829,135 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3979,7 +3994,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>133</v>
@@ -3990,10 +4005,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4001,7 +4016,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>133</v>
@@ -4012,10 +4027,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4023,7 +4038,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>133</v>
@@ -4034,7 +4049,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>133</v>
@@ -4045,7 +4060,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>133</v>
@@ -4067,7 +4082,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
@@ -4078,7 +4093,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
@@ -4089,10 +4104,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -4100,7 +4115,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -4111,7 +4126,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
         <v>133</v>
@@ -4122,7 +4137,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
         <v>133</v>
@@ -4136,7 +4151,7 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -4144,10 +4159,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -4155,7 +4170,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
         <v>133</v>
@@ -4166,7 +4181,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>133</v>
@@ -4177,10 +4192,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4191,7 +4206,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4199,7 +4214,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -4221,7 +4236,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
         <v>133</v>
@@ -4232,7 +4247,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
         <v>133</v>
@@ -4243,7 +4258,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
         <v>133</v>
@@ -4254,7 +4269,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
         <v>133</v>
@@ -4265,7 +4280,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>133</v>
@@ -4276,10 +4291,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -4287,10 +4302,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -4298,7 +4313,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
@@ -4309,10 +4324,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A383A4-713C-4972-B633-8D778868CD1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855DE80D-1257-4DF4-BEE8-21FC0C06B591}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -921,9 +921,6 @@
     <t>SCAR</t>
   </si>
   <si>
-    <t>GRAVIDA</t>
-  </si>
-  <si>
     <t>Woman in the fertile age - visit</t>
   </si>
   <si>
@@ -957,9 +954,6 @@
     <t>{REGID: data('REGID'), CICADATA: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
   </si>
   <si>
-    <t>{REGID: data('REGID'), PREGDIA: data('CONT'), ESTADOVIS: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
     <t>{REGID: data('REGID'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
   </si>
   <si>
@@ -991,6 +985,12 @@
   </si>
   <si>
     <t>faleceu</t>
+  </si>
+  <si>
+    <t>GRAVIDA_VISIT</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), CONT: data('CONT'), GRAVIDA_ESTADO: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId()}</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,10 +1561,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" t="s">
         <v>297</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
         <v>147</v>
@@ -1803,7 +1803,7 @@
         <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1816,10 +1816,10 @@
         <v>213</v>
       </c>
       <c r="G17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
         <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>232</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F48" t="s">
         <v>187</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
         <v>194</v>
@@ -2319,7 +2319,7 @@
         <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -2509,10 +2509,10 @@
         <v>213</v>
       </c>
       <c r="G93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>200</v>
       </c>
       <c r="E94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
         <v>260</v>
@@ -2650,7 +2650,7 @@
         <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3810,9 +3810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,13 +3870,13 @@
         <v>295</v>
       </c>
       <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" t="s">
         <v>304</v>
       </c>
-      <c r="F2" t="s">
-        <v>305</v>
-      </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>210</v>
@@ -3890,19 +3890,19 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
         <v>304</v>
       </c>
-      <c r="F3" t="s">
-        <v>305</v>
-      </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>210</v>
@@ -3910,25 +3910,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
         <v>304</v>
       </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>210</v>
@@ -3936,25 +3936,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
         <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" t="s">
         <v>304</v>
       </c>
-      <c r="F5" t="s">
-        <v>305</v>
-      </c>
       <c r="G5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>210</v>
@@ -4008,7 +4008,7 @@
         <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
@@ -4327,7 +4327,7 @@
         <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855DE80D-1257-4DF4-BEE8-21FC0C06B591}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86711A1A-05AB-4DCC-997B-F3FAA060851D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,9 +978,6 @@
     <t>MIFdead</t>
   </si>
   <si>
-    <t>{REGID: data('REGID'), DEATHDATE:data('EXITPRECIS'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
     <t>MIF_FAL</t>
   </si>
   <si>
@@ -991,6 +988,9 @@
   </si>
   <si>
     <t>{REGID: data('REGID'), CONT: data('CONT'), GRAVIDA_ESTADO: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), DEATHDATE:data('EXITDATA'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1827,7 @@
         <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,10 +3890,10 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
         <v>303</v>
@@ -3902,7 +3902,7 @@
         <v>304</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>210</v>
@@ -3936,16 +3936,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
         <v>303</v>
@@ -3954,7 +3954,7 @@
         <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>210</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86711A1A-05AB-4DCC-997B-F3FAA060851D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D3AC2-B75F-479F-8018-7893228CFBDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -987,10 +987,10 @@
     <t>GRAVIDA_VISIT</t>
   </si>
   <si>
-    <t>{REGID: data('REGID'), CONT: data('CONT'), GRAVIDA_ESTADO: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
     <t>{REGID: data('REGID'), DEATHDATE:data('EXITDATA'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), CONT: data('CONT'), MULPRESA: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId()}</t>
   </si>
 </sst>
 </file>
@@ -3812,7 +3812,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,7 +3902,7 @@
         <v>304</v>
       </c>
       <c r="G3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>210</v>
@@ -3954,7 +3954,7 @@
         <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>210</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D3AC2-B75F-479F-8018-7893228CFBDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05041FD3-5B2B-4A4F-81A2-133D364E8CF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="320">
   <si>
     <t>setting_name</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Data de saída</t>
   </si>
   <si>
-    <t>EXITPRECIS</t>
-  </si>
-  <si>
     <t>Onde?</t>
   </si>
   <si>
@@ -750,12 +747,6 @@
     <t>data('ESTADOVIS') ==  '1' &amp;&amp; data('CICA') == null</t>
   </si>
   <si>
-    <t>ABPARTNVPRECIS</t>
-  </si>
-  <si>
-    <t>ABPARTPRECIS</t>
-  </si>
-  <si>
     <t>CESCO</t>
   </si>
   <si>
@@ -798,9 +789,6 @@
     <t>dontknow</t>
   </si>
   <si>
-    <t>ESCONS</t>
-  </si>
-  <si>
     <t>prompt_type_name</t>
   </si>
   <si>
@@ -991,6 +979,18 @@
   </si>
   <si>
     <t>{REGID: data('REGID'), CONT: data('CONT'), MULPRESA: data('ESTADOVIS'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>escons</t>
+  </si>
+  <si>
+    <t>data('escons') != null</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1161,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1213,6 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1520,13 +1521,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1537,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,10 +1562,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,7 +1581,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1591,15 +1592,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>144</v>
@@ -1613,11 +1614,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="A83:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1664,13 +1665,13 @@
         <v>136</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1681,7 +1682,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -1728,7 +1729,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
         <v>145</v>
@@ -1742,12 +1743,12 @@
         <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>147</v>
@@ -1764,7 +1765,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,13 +1773,13 @@
         <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1803,7 +1804,7 @@
         <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1813,21 +1814,21 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1847,7 +1848,7 @@
         <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1856,7 +1857,7 @@
         <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1872,13 +1873,13 @@
         <v>27</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1886,7 +1887,7 @@
         <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,13 +1898,13 @@
         <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1911,7 +1912,7 @@
         <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1919,30 +1920,30 @@
         <v>133</v>
       </c>
       <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F28" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>227</v>
-      </c>
       <c r="H28" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1983,13 +1984,13 @@
         <v>27</v>
       </c>
       <c r="F35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
         <v>154</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>155</v>
-      </c>
-      <c r="H35" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,13 +2001,13 @@
         <v>27</v>
       </c>
       <c r="F36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" t="s">
         <v>157</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>158</v>
-      </c>
-      <c r="H36" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2014,10 +2015,10 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L37" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2025,10 +2026,10 @@
         <v>135</v>
       </c>
       <c r="J38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,7 +2042,7 @@
         <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2049,7 +2050,7 @@
         <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2065,13 +2066,13 @@
         <v>27</v>
       </c>
       <c r="F43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" t="s">
         <v>160</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>161</v>
-      </c>
-      <c r="H43" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2089,7 +2090,7 @@
         <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2099,16 +2100,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" t="s">
         <v>187</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>188</v>
-      </c>
-      <c r="H48" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2119,13 +2120,13 @@
         <v>90</v>
       </c>
       <c r="F49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" t="s">
         <v>164</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>165</v>
-      </c>
-      <c r="H49" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -2138,7 +2139,7 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -2154,13 +2155,13 @@
         <v>27</v>
       </c>
       <c r="F53" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>192</v>
-      </c>
       <c r="H53" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -2168,21 +2169,21 @@
         <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" t="s">
         <v>194</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>195</v>
-      </c>
-      <c r="H55" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -2210,7 +2211,7 @@
         <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -2226,13 +2227,13 @@
         <v>27</v>
       </c>
       <c r="F62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62" t="s">
         <v>167</v>
-      </c>
-      <c r="G62" t="s">
-        <v>169</v>
-      </c>
-      <c r="H62" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -2240,24 +2241,24 @@
         <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
         <v>93</v>
       </c>
       <c r="F64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" t="s">
         <v>171</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>172</v>
-      </c>
-      <c r="H64" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -2288,13 +2289,13 @@
         <v>27</v>
       </c>
       <c r="F69" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" t="s">
         <v>174</v>
       </c>
-      <c r="G69" t="s">
-        <v>175</v>
-      </c>
       <c r="H69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -2305,13 +2306,13 @@
         <v>85</v>
       </c>
       <c r="F70" t="s">
+        <v>175</v>
+      </c>
+      <c r="G70" t="s">
         <v>176</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>177</v>
-      </c>
-      <c r="H70" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -2319,7 +2320,7 @@
         <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -2330,13 +2331,13 @@
         <v>79</v>
       </c>
       <c r="F72" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" t="s">
         <v>179</v>
       </c>
-      <c r="G72" t="s">
-        <v>180</v>
-      </c>
       <c r="H72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -2362,13 +2363,13 @@
         <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G76" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -2376,216 +2377,238 @@
         <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G78" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H78" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F79" t="s">
-        <v>255</v>
-      </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+        <v>316</v>
+      </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>318</v>
+      </c>
+      <c r="F81" t="s">
+        <v>240</v>
+      </c>
+      <c r="I81" s="31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>135</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" t="s">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" t="s">
         <v>134</v>
       </c>
-      <c r="C82" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="C85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>213</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" t="s">
         <v>200</v>
       </c>
-      <c r="E85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>133</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E92" t="s">
+        <v>196</v>
+      </c>
+      <c r="F92" t="s">
+        <v>241</v>
+      </c>
+      <c r="G92" t="s">
         <v>197</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" t="s">
         <v>244</v>
       </c>
-      <c r="G89" t="s">
-        <v>198</v>
-      </c>
-      <c r="H89" t="s">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>212</v>
+      </c>
+      <c r="G96" t="s">
+        <v>297</v>
+      </c>
+      <c r="H96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="E97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="26"/>
+      <c r="B102" t="s">
         <v>134</v>
       </c>
-      <c r="C91" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" t="s">
-        <v>301</v>
-      </c>
-      <c r="H93" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>200</v>
-      </c>
-      <c r="E94" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C99" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>213</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" t="s">
-        <v>265</v>
+      <c r="C102" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
+        <v>212</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
+      <c r="B107" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2613,44 +2636,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2663,8 +2686,8 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -2691,7 +2714,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -2706,7 +2729,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
@@ -3238,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
         <v>67</v>
@@ -3336,32 +3359,32 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
         <v>183</v>
-      </c>
-      <c r="D52" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,11 +3717,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>319</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -3709,82 +3731,82 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B70" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B71" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B72" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B73" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B74" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B75" t="str">
         <f>"3"</f>
@@ -3810,7 +3832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
@@ -3829,135 +3851,135 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" t="s">
         <v>299</v>
       </c>
-      <c r="D4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
         <v>303</v>
       </c>
-      <c r="F4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" t="s">
-        <v>307</v>
-      </c>
       <c r="H4" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3967,11 +3989,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3979,9 +4001,10 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -3992,9 +4015,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>133</v>
@@ -4003,20 +4026,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>133</v>
@@ -4025,20 +4048,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>133</v>
@@ -4047,9 +4070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>240</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>133</v>
@@ -4058,9 +4081,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>133</v>
@@ -4069,9 +4092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>141</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>133</v>
@@ -4079,21 +4102,22 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>244</v>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>306</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>241</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
@@ -4102,20 +4126,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>232</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>223</v>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>232</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -4123,46 +4148,47 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>306</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -4170,7 +4196,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>133</v>
@@ -4181,10 +4207,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -4192,10 +4218,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4203,10 +4229,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4217,7 +4243,7 @@
         <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4225,7 +4251,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
         <v>133</v>
@@ -4236,7 +4262,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
         <v>133</v>
@@ -4247,7 +4273,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>133</v>
@@ -4258,7 +4284,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
         <v>133</v>
@@ -4267,74 +4293,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>133</v>
+        <v>217</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>306</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>294</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B34" t="s">
-        <v>310</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05041FD3-5B2B-4A4F-81A2-133D364E8CF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9489FE06-BF62-44CD-9026-01B9CF79F6D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="324">
   <si>
     <t>setting_name</t>
   </si>
@@ -991,6 +991,18 @@
   </si>
   <si>
     <t>NS</t>
+  </si>
+  <si>
+    <t>linked_gr</t>
+  </si>
+  <si>
+    <t>order_by</t>
+  </si>
+  <si>
+    <t>_savepoint_timestamp DESC</t>
+  </si>
+  <si>
+    <t>async_assign_num_value</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1173,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1214,6 +1226,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1616,9 +1629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="A83:XFD85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>212</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>199</v>
       </c>
@@ -1831,18 +1844,18 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>134</v>
@@ -1851,7 +1864,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>134</v>
@@ -1860,12 +1873,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -1882,7 +1895,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>134</v>
       </c>
@@ -1890,7 +1903,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>133</v>
       </c>
@@ -1907,7 +1920,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>134</v>
       </c>
@@ -1915,7 +1928,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>133</v>
       </c>
@@ -1932,7 +1945,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>306</v>
       </c>
@@ -1946,22 +1959,19 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>13</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2620,16 +2630,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D16542-802D-44C2-9BBB-C38197DEBA0F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2674,6 +2684,14 @@
       </c>
       <c r="D3" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3830,11 +3848,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +3867,7 @@
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>201</v>
       </c>
@@ -3877,8 +3895,11 @@
       <c r="I1" s="24" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -3904,7 +3925,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -3930,7 +3951,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -3956,7 +3977,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>312</v>
       </c>
@@ -3980,6 +4001,38 @@
       </c>
       <c r="H5" s="17" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9489FE06-BF62-44CD-9026-01B9CF79F6D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B8C81E-B5CA-49F1-A2AD-4CE4A66B8EBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1629,9 +1629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,10 +1829,10 @@
       <c r="D17" t="s">
         <v>212</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="29" t="s">
         <v>309</v>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D16542-802D-44C2-9BBB-C38197DEBA0F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -4046,7 +4046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:C31"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
